--- a/IT系统后阶段开发时间计划表-第九版.xlsx
+++ b/IT系统后阶段开发时间计划表-第九版.xlsx
@@ -665,6 +665,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,15 +708,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,44 +719,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:N18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1106,47 +1106,47 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="35" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1165,16 +1165,16 @@
       <c r="K4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="36"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="2:12" s="6" customFormat="1" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1183,7 +1183,7 @@
       <c r="G5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="18" t="s">
         <v>75</v>
       </c>
       <c r="I5" s="13">
@@ -1199,16 +1199,16 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="2:12" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="13">
         <f>J5+1</f>
         <v>42724</v>
@@ -1223,49 +1223,49 @@
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:12" s="6" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18" t="s">
         <v>81</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="18">
+      <c r="H7" s="19"/>
+      <c r="I7" s="30">
         <f>J6+1</f>
         <v>42725</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="30">
         <v>42725</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="2:12" s="6" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="2:12" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1274,46 +1274,46 @@
       <c r="G9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="18">
+      <c r="H9" s="19"/>
+      <c r="I9" s="30">
         <v>42726</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="30">
         <v>42727</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" s="6" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.25">
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="2:12" s="6" customFormat="1" ht="113.4" x14ac:dyDescent="0.25">
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="13">
         <v>42730</v>
       </c>
@@ -1327,146 +1327,146 @@
       <c r="L11" s="16"/>
     </row>
     <row r="12" spans="2:12" s="6" customFormat="1" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="18">
+      <c r="H12" s="19"/>
+      <c r="I12" s="30">
         <v>42731</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="30">
         <v>42731</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.25">
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="2:12" s="6" customFormat="1" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="18">
+      <c r="H14" s="19"/>
+      <c r="I14" s="30">
         <v>42732</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="30">
         <v>42732</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L14" s="21"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="2:12" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.25">
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="2:12" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="18">
+      <c r="H16" s="19"/>
+      <c r="I16" s="30">
         <v>42733</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="30">
         <v>42733</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="3:12" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.25">
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="8" t="s">
         <v>71</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="3:12" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.25">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="3:12" s="6" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -1475,48 +1475,48 @@
       <c r="G19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="30">
         <v>42734</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="30">
         <v>42734</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="18">
         <f>NETWORKDAYS(I19, J19)</f>
         <v>1</v>
       </c>
-      <c r="L19" s="24"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="3:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="26"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="3:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="13">
         <v>42737</v>
       </c>
@@ -1530,8 +1530,8 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="3:12" s="6" customFormat="1" ht="162" x14ac:dyDescent="0.25">
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="7" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="G22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="13">
         <v>42739</v>
       </c>
@@ -1555,11 +1555,11 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="3:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="22"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -1568,40 +1568,40 @@
       <c r="G23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="30">
         <v>42741</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="30">
         <v>42744</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="33"/>
     </row>
     <row r="24" spans="3:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="22"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="25"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="3:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="22"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="11" t="s">
         <v>23</v>
       </c>
@@ -1611,14 +1611,14 @@
       <c r="G25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="26"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" spans="3:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="23"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="7" t="s">
         <v>26</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="3:12" s="6" customFormat="1" ht="113.4" x14ac:dyDescent="0.25">
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="28" spans="3:12" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="C28" s="23"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="10" t="s">
         <v>39</v>
       </c>
@@ -1709,13 +1709,13 @@
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="3:12" s="6" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -1724,56 +1724,56 @@
       <c r="G29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="30">
         <v>42747</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="30">
         <v>42747</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L29" s="24"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="3:12" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="25"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="3:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="26"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="35"/>
     </row>
     <row r="32" spans="3:12" s="6" customFormat="1" ht="113.4" x14ac:dyDescent="0.25">
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="7" t="s">
         <v>33</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="G32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="23"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="13">
         <v>42753</v>
       </c>
@@ -1797,11 +1797,11 @@
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="3:12" s="6" customFormat="1" ht="48.6" x14ac:dyDescent="0.25">
-      <c r="C33" s="22"/>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -1810,56 +1810,56 @@
       <c r="G33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="30">
         <v>42756</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="30">
         <v>42758</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L33" s="24"/>
+      <c r="L33" s="33"/>
     </row>
     <row r="34" spans="3:12" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="25"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" spans="3:12" s="6" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="26"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="35"/>
     </row>
     <row r="36" spans="3:12" s="6" customFormat="1" ht="178.2" x14ac:dyDescent="0.25">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="7" t="s">
         <v>33</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="G36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="23"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="13">
         <v>42759</v>
       </c>
@@ -1900,18 +1900,18 @@
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="3:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="30"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
@@ -1924,17 +1924,34 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="C5:C18"/>
+    <mergeCell ref="H5:H18"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="C38:L38"/>
     <mergeCell ref="H33:H36"/>
     <mergeCell ref="C27:C28"/>
@@ -1951,45 +1968,28 @@
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="D5:D18"/>
-    <mergeCell ref="C5:C18"/>
-    <mergeCell ref="H5:H18"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="J29:J31"/>
     <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="L33:L35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
